--- a/Excel_Files/Stats_Populations/1_cm/686_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/686_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002309392409121635</v>
+        <v>0.005768705908212659</v>
       </c>
       <c r="D2">
-        <v>0.0004249947616392211</v>
+        <v>0.005573727669055457</v>
       </c>
       <c r="E2">
-        <v>0.0002602719817349507</v>
+        <v>0.005566973105019251</v>
       </c>
       <c r="F2">
-        <v>0.0002358049628205837</v>
+        <v>0.00517255090190172</v>
       </c>
       <c r="G2">
-        <v>0.000130223913581799</v>
+        <v>0.005182367476008633</v>
       </c>
       <c r="H2">
-        <v>0.0004249947616392211</v>
+        <v>0.005768705908212659</v>
       </c>
       <c r="I2">
-        <v>0.0004425956484116972</v>
+        <v>0.00575424828225552</v>
       </c>
       <c r="J2">
-        <v>0.0005810778356249612</v>
+        <v>0.006076420404777347</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.000112332188004902</v>
+        <v>0.005135803687879734</v>
       </c>
       <c r="D3">
-        <v>0.0003257395958916814</v>
+        <v>0.00510323143237234</v>
       </c>
       <c r="E3">
-        <v>0.0001719681546637833</v>
+        <v>0.005020672652088776</v>
       </c>
       <c r="F3">
-        <v>8.69431611658144E-05</v>
+        <v>0.004537197998141358</v>
       </c>
       <c r="G3">
-        <v>8.143458965339465E-05</v>
+        <v>0.00452139734201359</v>
       </c>
       <c r="H3">
-        <v>0.0001811705969923793</v>
+        <v>0.005022182001622718</v>
       </c>
       <c r="I3">
-        <v>0.0001882813002386454</v>
+        <v>0.005427499591131066</v>
       </c>
       <c r="J3">
-        <v>0.0001032485023542453</v>
+        <v>0.005076578817835928</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5.903785054115279E-05</v>
+        <v>0.004557862248677019</v>
       </c>
       <c r="D4">
-        <v>0.0001432090079832966</v>
+        <v>0.00474908556037458</v>
       </c>
       <c r="E4">
-        <v>0.0001096235147044383</v>
+        <v>0.004719311591554088</v>
       </c>
       <c r="F4">
-        <v>3.040990576170122E-05</v>
+        <v>0.003911235864680378</v>
       </c>
       <c r="G4">
-        <v>2.641847459836649E-05</v>
+        <v>0.003760094154496808</v>
       </c>
       <c r="H4">
-        <v>7.726825563219386E-05</v>
+        <v>0.004534634144138969</v>
       </c>
       <c r="I4">
-        <v>0.0001226463532670197</v>
+        <v>0.005182768382445629</v>
       </c>
       <c r="J4">
-        <v>3.281535333539027E-05</v>
+        <v>0.004140006625833809</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.300401698143738E-06</v>
+        <v>0.001859592161848983</v>
       </c>
       <c r="D5">
-        <v>3.268586161741076E-06</v>
+        <v>0.002100333965528337</v>
       </c>
       <c r="E5">
-        <v>2.372453773921665E-06</v>
+        <v>0.001898509583591573</v>
       </c>
       <c r="F5">
-        <v>1.007874840847235E-06</v>
+        <v>0.001475703140977361</v>
       </c>
       <c r="G5">
-        <v>5.681581091470229E-07</v>
+        <v>0.001214575509301913</v>
       </c>
       <c r="H5">
-        <v>1.218561802960971E-06</v>
+        <v>0.00155703097567555</v>
       </c>
       <c r="I5">
-        <v>2.120717700861596E-06</v>
+        <v>0.001826593991460149</v>
       </c>
       <c r="J5">
-        <v>2.081342330907192E-06</v>
+        <v>0.001736557178510139</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.317136358655305E-06</v>
+        <v>0.001591223776463853</v>
       </c>
       <c r="D6">
-        <v>1.077228509407864E-06</v>
+        <v>0.001540181689976023</v>
       </c>
       <c r="E6">
-        <v>9.416915492764939E-07</v>
+        <v>0.00141595093769954</v>
       </c>
       <c r="F6">
-        <v>3.624942224305535E-07</v>
+        <v>0.001075041864250437</v>
       </c>
       <c r="G6">
-        <v>2.179115449620833E-07</v>
+        <v>0.0009099081191074325</v>
       </c>
       <c r="H6">
-        <v>3.723344540678026E-07</v>
+        <v>0.001096561733593652</v>
       </c>
       <c r="I6">
-        <v>1.273217402207721E-06</v>
+        <v>0.001562551829258028</v>
       </c>
       <c r="J6">
-        <v>1.184913064162967E-06</v>
+        <v>0.001425839165903396</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>6.766662369141383E-07</v>
+        <v>0.001255765326197699</v>
       </c>
       <c r="D7">
-        <v>3.726682168772675E-07</v>
+        <v>0.001088325257346684</v>
       </c>
       <c r="E7">
-        <v>2.576236820294142E-07</v>
+        <v>0.0009468621419552402</v>
       </c>
       <c r="F7">
-        <v>8.108217606321517E-08</v>
+        <v>0.0006563833583595623</v>
       </c>
       <c r="G7">
-        <v>1.134125954961433E-07</v>
+        <v>0.0007517880187302526</v>
       </c>
       <c r="H7">
-        <v>8.108217606321517E-08</v>
+        <v>0.0006563833583595623</v>
       </c>
       <c r="I7">
-        <v>6.878298109578027E-07</v>
+        <v>0.001284407417674594</v>
       </c>
       <c r="J7">
-        <v>5.717432883348401E-07</v>
+        <v>0.001163696275108493</v>
       </c>
     </row>
   </sheetData>
